--- a/amazonFimo.xlsx
+++ b/amazonFimo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Documents\GitHub\QAABSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{69FD23D4-A1DD-4401-BB63-6B124D4E4B79}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E52E476-0524-4FA4-ABD0-A3ACAA01888F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{AA931CEC-07F0-4CA3-8D7D-7B43BFC64662}"/>
   </bookViews>
@@ -1660,10 +1660,6 @@
 • easy to work with</t>
   </si>
   <si>
-    <t>colors,
-work</t>
-  </si>
-  <si>
     <t>blocks, condition</t>
   </si>
   <si>
@@ -1878,6 +1874,9 @@
   </si>
   <si>
     <t>negative</t>
+  </si>
+  <si>
+    <t>colors, work</t>
   </si>
 </sst>
 </file>
@@ -2261,8 +2260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F306978-42A2-4092-8E3E-E559BAE08F85}">
   <dimension ref="A1:E201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="D181" sqref="D181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2274,19 +2273,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>571</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -4728,55 +4727,55 @@
         <v>505</v>
       </c>
       <c r="C181" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D181" t="s">
+        <v>573</v>
+      </c>
+      <c r="E181" t="s">
         <v>506</v>
-      </c>
-      <c r="E181" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
+        <v>508</v>
+      </c>
+      <c r="B182" t="s">
+        <v>3</v>
+      </c>
+      <c r="C182" t="s">
+        <v>510</v>
+      </c>
+      <c r="E182" t="s">
         <v>509</v>
-      </c>
-      <c r="B182" t="s">
-        <v>3</v>
-      </c>
-      <c r="C182" t="s">
-        <v>511</v>
-      </c>
-      <c r="E182" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
+        <v>511</v>
+      </c>
+      <c r="B183" t="s">
         <v>512</v>
       </c>
-      <c r="B183" t="s">
+      <c r="C183" t="s">
+        <v>3</v>
+      </c>
+      <c r="D183" t="s">
         <v>513</v>
-      </c>
-      <c r="C183" t="s">
-        <v>3</v>
-      </c>
-      <c r="D183" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
+        <v>514</v>
+      </c>
+      <c r="B184" t="s">
         <v>515</v>
       </c>
-      <c r="B184" t="s">
+      <c r="C184" t="s">
+        <v>517</v>
+      </c>
+      <c r="D184" t="s">
         <v>516</v>
-      </c>
-      <c r="C184" t="s">
-        <v>518</v>
-      </c>
-      <c r="D184" t="s">
-        <v>517</v>
       </c>
       <c r="E184" t="s">
         <v>235</v>
@@ -4784,83 +4783,83 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
+        <v>518</v>
+      </c>
+      <c r="B185" t="s">
         <v>519</v>
       </c>
-      <c r="B185" t="s">
+      <c r="C185" t="s">
+        <v>3</v>
+      </c>
+      <c r="D185" t="s">
         <v>520</v>
-      </c>
-      <c r="C185" t="s">
-        <v>3</v>
-      </c>
-      <c r="D185" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
+        <v>521</v>
+      </c>
+      <c r="B186" t="s">
         <v>522</v>
       </c>
-      <c r="B186" t="s">
+      <c r="C186" t="s">
+        <v>3</v>
+      </c>
+      <c r="D186" t="s">
         <v>523</v>
-      </c>
-      <c r="C186" t="s">
-        <v>3</v>
-      </c>
-      <c r="D186" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
+        <v>524</v>
+      </c>
+      <c r="B187" t="s">
         <v>525</v>
       </c>
-      <c r="B187" t="s">
+      <c r="C187" t="s">
+        <v>3</v>
+      </c>
+      <c r="D187" t="s">
         <v>526</v>
-      </c>
-      <c r="C187" t="s">
-        <v>3</v>
-      </c>
-      <c r="D187" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
+        <v>527</v>
+      </c>
+      <c r="B188" t="s">
+        <v>3</v>
+      </c>
+      <c r="C188" t="s">
+        <v>529</v>
+      </c>
+      <c r="E188" t="s">
         <v>528</v>
-      </c>
-      <c r="B188" t="s">
-        <v>3</v>
-      </c>
-      <c r="C188" t="s">
-        <v>530</v>
-      </c>
-      <c r="E188" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
+        <v>530</v>
+      </c>
+      <c r="B189" t="s">
         <v>531</v>
       </c>
-      <c r="B189" t="s">
+      <c r="D189" t="s">
         <v>532</v>
-      </c>
-      <c r="D189" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
+        <v>533</v>
+      </c>
+      <c r="B190" t="s">
         <v>534</v>
       </c>
-      <c r="B190" t="s">
+      <c r="C190" t="s">
+        <v>536</v>
+      </c>
+      <c r="D190" t="s">
         <v>535</v>
-      </c>
-      <c r="C190" t="s">
-        <v>537</v>
-      </c>
-      <c r="D190" t="s">
-        <v>536</v>
       </c>
       <c r="E190" t="s">
         <v>235</v>
@@ -4868,10 +4867,10 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
+        <v>537</v>
+      </c>
+      <c r="B191" t="s">
         <v>538</v>
-      </c>
-      <c r="B191" t="s">
-        <v>539</v>
       </c>
       <c r="C191" t="s">
         <v>3</v>
@@ -4882,38 +4881,38 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
+        <v>539</v>
+      </c>
+      <c r="B192" t="s">
         <v>540</v>
       </c>
-      <c r="B192" t="s">
+      <c r="C192" t="s">
+        <v>3</v>
+      </c>
+      <c r="D192" t="s">
         <v>541</v>
-      </c>
-      <c r="C192" t="s">
-        <v>3</v>
-      </c>
-      <c r="D192" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
+        <v>542</v>
+      </c>
+      <c r="B193" t="s">
         <v>543</v>
       </c>
-      <c r="B193" t="s">
+      <c r="C193" t="s">
+        <v>3</v>
+      </c>
+      <c r="D193" t="s">
         <v>544</v>
-      </c>
-      <c r="C193" t="s">
-        <v>3</v>
-      </c>
-      <c r="D193" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
+        <v>545</v>
+      </c>
+      <c r="B194" t="s">
         <v>546</v>
-      </c>
-      <c r="B194" t="s">
-        <v>547</v>
       </c>
       <c r="C194" t="s">
         <v>3</v>
@@ -4924,10 +4923,10 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
+        <v>547</v>
+      </c>
+      <c r="B195" t="s">
         <v>548</v>
-      </c>
-      <c r="B195" t="s">
-        <v>549</v>
       </c>
       <c r="D195" t="s">
         <v>154</v>
@@ -4935,89 +4934,89 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
+        <v>549</v>
+      </c>
+      <c r="B196" t="s">
         <v>550</v>
       </c>
-      <c r="B196" t="s">
+      <c r="C196" t="s">
+        <v>3</v>
+      </c>
+      <c r="D196" t="s">
         <v>551</v>
-      </c>
-      <c r="C196" t="s">
-        <v>3</v>
-      </c>
-      <c r="D196" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
+        <v>552</v>
+      </c>
+      <c r="B197" t="s">
+        <v>3</v>
+      </c>
+      <c r="C197" t="s">
+        <v>554</v>
+      </c>
+      <c r="E197" t="s">
         <v>553</v>
-      </c>
-      <c r="B197" t="s">
-        <v>3</v>
-      </c>
-      <c r="C197" t="s">
-        <v>555</v>
-      </c>
-      <c r="E197" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
+        <v>555</v>
+      </c>
+      <c r="B198" t="s">
         <v>556</v>
       </c>
-      <c r="B198" t="s">
+      <c r="C198" t="s">
+        <v>558</v>
+      </c>
+      <c r="D198" t="s">
         <v>557</v>
-      </c>
-      <c r="C198" t="s">
-        <v>559</v>
-      </c>
-      <c r="D198" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
+        <v>559</v>
+      </c>
+      <c r="B199" t="s">
         <v>560</v>
       </c>
-      <c r="B199" t="s">
+      <c r="C199" t="s">
+        <v>3</v>
+      </c>
+      <c r="D199" t="s">
         <v>561</v>
-      </c>
-      <c r="C199" t="s">
-        <v>3</v>
-      </c>
-      <c r="D199" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
+        <v>562</v>
+      </c>
+      <c r="B200" t="s">
         <v>563</v>
       </c>
-      <c r="B200" t="s">
+      <c r="C200" t="s">
+        <v>3</v>
+      </c>
+      <c r="D200" t="s">
         <v>564</v>
-      </c>
-      <c r="C200" t="s">
-        <v>3</v>
-      </c>
-      <c r="D200" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B201" t="s">
         <v>11</v>
       </c>
       <c r="C201" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D201" t="s">
         <v>12</v>
       </c>
       <c r="E201" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
   </sheetData>
